--- a/Lab6-C1-ChaosSimulation/waterplots.xlsx
+++ b/Lab6-C1-ChaosSimulation/waterplots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\GitHub\SeniorLab\Lab6-C1-ChaosSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E537E0DD-2198-46C2-9761-AD912B03576A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81255079-6BFF-49C8-B020-D87BC810D1D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" activeTab="7" xr2:uid="{E029F445-717A-472C-A017-49B6F20C7A56}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{E029F445-717A-472C-A017-49B6F20C7A56}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +72,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,13 +99,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -138,7 +146,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Trial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1: Time Interval of Drop Formation Over Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4953,6 +5021,165 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.67</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.74</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.64</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.46</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.84</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.74</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.76</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15.63</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16.52</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.89</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18.37</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18.739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.62</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20.77</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21.18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21.57</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22.07</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22.38</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>22.76</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>23.13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4962,6 +5189,165 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.37</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11093,18 +11479,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45E3722-4E44-473A-8B81-0BFAED6FE7E5}">
   <dimension ref="A2:V68"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="89" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="89" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="11.453125" customWidth="1"/>
     <col min="21" max="21" width="9.2265625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11118,7 +11504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:22">
       <c r="U3" s="1">
         <v>1.92</v>
       </c>
@@ -11126,7 +11512,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:22">
       <c r="U4" s="1">
         <v>4.03</v>
       </c>
@@ -11134,7 +11520,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:22">
       <c r="U5" s="1">
         <v>6.53</v>
       </c>
@@ -11142,7 +11528,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:22">
       <c r="U6" s="1">
         <v>9.3699999999999992</v>
       </c>
@@ -11150,7 +11536,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:22">
       <c r="U7" s="1">
         <v>11.77</v>
       </c>
@@ -11158,7 +11544,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:22">
       <c r="U8" s="1">
         <v>14.46</v>
       </c>
@@ -11166,7 +11552,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:22">
       <c r="U9" s="1">
         <v>17.16</v>
       </c>
@@ -11174,7 +11560,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:22">
       <c r="U10" s="1">
         <v>19.809999999999999</v>
       </c>
@@ -11182,7 +11568,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:22">
       <c r="U11" s="1">
         <v>22.31</v>
       </c>
@@ -11190,7 +11576,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:22">
       <c r="U12" s="1">
         <v>24.74</v>
       </c>
@@ -11198,7 +11584,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:22">
       <c r="U13" s="1">
         <v>27.04</v>
       </c>
@@ -11206,7 +11592,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:22">
       <c r="U14" s="1">
         <v>29.35</v>
       </c>
@@ -11214,7 +11600,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:22">
       <c r="U15" s="1">
         <v>31.58</v>
       </c>
@@ -11222,7 +11608,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:22">
       <c r="U16" s="1">
         <v>33.96</v>
       </c>
@@ -11230,7 +11616,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="17" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="17" spans="21:22">
       <c r="U17" s="1">
         <v>36.200000000000003</v>
       </c>
@@ -11238,7 +11624,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="18" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="18" spans="21:22">
       <c r="U18" s="1">
         <v>38.61</v>
       </c>
@@ -11246,7 +11632,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="19" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="19" spans="21:22">
       <c r="U19" s="1">
         <v>40.9</v>
       </c>
@@ -11254,7 +11640,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="20" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="20" spans="21:22">
       <c r="U20" s="1">
         <v>43.25</v>
       </c>
@@ -11262,7 +11648,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="21" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="21" spans="21:22">
       <c r="U21" s="1">
         <v>45.48</v>
       </c>
@@ -11270,7 +11656,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="22" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="22" spans="21:22">
       <c r="U22" s="1">
         <v>47.75</v>
       </c>
@@ -11278,7 +11664,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="23" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="23" spans="21:22">
       <c r="U23" s="1">
         <v>50.07</v>
       </c>
@@ -11286,7 +11672,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="24" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="24" spans="21:22">
       <c r="U24" s="1">
         <v>52.39</v>
       </c>
@@ -11294,7 +11680,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="25" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="25" spans="21:22">
       <c r="U25" s="1">
         <v>54.75</v>
       </c>
@@ -11302,7 +11688,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="26" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="26" spans="21:22">
       <c r="U26" s="1">
         <v>57.09</v>
       </c>
@@ -11310,7 +11696,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="27" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="27" spans="21:22">
       <c r="U27" s="1">
         <v>59.48</v>
       </c>
@@ -11318,7 +11704,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="28" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="28" spans="21:22">
       <c r="U28" s="1">
         <v>61.74</v>
       </c>
@@ -11326,7 +11712,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="29" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="29" spans="21:22">
       <c r="U29" s="1">
         <v>64.099999999999994</v>
       </c>
@@ -11334,7 +11720,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="30" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="30" spans="21:22">
       <c r="U30" s="1">
         <v>66.319999999999993</v>
       </c>
@@ -11342,7 +11728,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="31" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="31" spans="21:22">
       <c r="U31" s="1">
         <v>68.67</v>
       </c>
@@ -11350,7 +11736,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="32" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="32" spans="21:22">
       <c r="U32" s="1">
         <v>70.989999999999995</v>
       </c>
@@ -11358,7 +11744,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="33" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="33" spans="21:22">
       <c r="U33" s="1">
         <v>73.319999999999993</v>
       </c>
@@ -11366,7 +11752,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="34" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="34" spans="21:22">
       <c r="U34" s="1">
         <v>75.56</v>
       </c>
@@ -11374,7 +11760,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="35" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="35" spans="21:22">
       <c r="U35" s="1">
         <v>77.92</v>
       </c>
@@ -11382,7 +11768,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="36" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="36" spans="21:22">
       <c r="U36" s="1">
         <v>80.25</v>
       </c>
@@ -11390,7 +11776,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="37" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="37" spans="21:22">
       <c r="U37" s="1">
         <v>82.51</v>
       </c>
@@ -11398,7 +11784,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="38" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="38" spans="21:22">
       <c r="U38" s="1">
         <v>84.82</v>
       </c>
@@ -11406,7 +11792,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="39" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="39" spans="21:22">
       <c r="U39" s="1">
         <v>87.14</v>
       </c>
@@ -11414,7 +11800,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="40" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="40" spans="21:22">
       <c r="U40" s="1">
         <v>89.53</v>
       </c>
@@ -11422,7 +11808,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="41" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="41" spans="21:22">
       <c r="U41" s="1">
         <v>91.79</v>
       </c>
@@ -11430,7 +11816,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="42" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="42" spans="21:22">
       <c r="U42" s="1">
         <v>94.12</v>
       </c>
@@ -11438,7 +11824,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="43" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="43" spans="21:22">
       <c r="U43" s="1">
         <v>96.39</v>
       </c>
@@ -11446,7 +11832,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="44" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="44" spans="21:22">
       <c r="U44" s="1">
         <v>98.62</v>
       </c>
@@ -11454,7 +11840,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="45" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="45" spans="21:22">
       <c r="U45" s="1">
         <v>100.92</v>
       </c>
@@ -11462,7 +11848,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="46" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="46" spans="21:22">
       <c r="U46" s="1">
         <v>103.11</v>
       </c>
@@ -11470,7 +11856,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="47" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="47" spans="21:22">
       <c r="U47" s="1">
         <v>105.41</v>
       </c>
@@ -11478,7 +11864,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="48" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="48" spans="21:22">
       <c r="U48" s="1">
         <v>107.28</v>
       </c>
@@ -11486,7 +11872,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="49" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="49" spans="21:22">
       <c r="U49" s="1">
         <v>109.97</v>
       </c>
@@ -11494,7 +11880,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="50" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="50" spans="21:22">
       <c r="U50" s="1">
         <v>112.29</v>
       </c>
@@ -11502,7 +11888,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="51" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="51" spans="21:22">
       <c r="U51" s="1">
         <v>114.62</v>
       </c>
@@ -11510,7 +11896,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="52" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="52" spans="21:22">
       <c r="U52" s="1">
         <v>117.02</v>
       </c>
@@ -11518,7 +11904,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="53" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="53" spans="21:22">
       <c r="U53" s="1">
         <v>119.38</v>
       </c>
@@ -11526,7 +11912,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="54" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="54" spans="21:22">
       <c r="U54" s="1">
         <v>121.62</v>
       </c>
@@ -11534,7 +11920,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="55" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="55" spans="21:22">
       <c r="U55" s="1">
         <v>124</v>
       </c>
@@ -11542,7 +11928,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="56" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="56" spans="21:22">
       <c r="U56" s="1">
         <v>126.27</v>
       </c>
@@ -11550,7 +11936,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="57" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="57" spans="21:22">
       <c r="U57" s="1">
         <v>128.6</v>
       </c>
@@ -11558,7 +11944,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="58" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="58" spans="21:22">
       <c r="U58" s="1">
         <v>130.91999999999999</v>
       </c>
@@ -11566,7 +11952,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="59" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="59" spans="21:22">
       <c r="U59" s="1">
         <v>133.25</v>
       </c>
@@ -11574,7 +11960,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="60" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="60" spans="21:22">
       <c r="U60" s="1">
         <v>135.61000000000001</v>
       </c>
@@ -11582,7 +11968,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="61" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="61" spans="21:22">
       <c r="U61" s="1">
         <v>138.16</v>
       </c>
@@ -11590,7 +11976,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="62" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="62" spans="21:22">
       <c r="U62" s="1">
         <v>140.63999999999999</v>
       </c>
@@ -11598,7 +11984,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="63" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="63" spans="21:22">
       <c r="U63" s="1">
         <v>143.19999999999999</v>
       </c>
@@ -11606,7 +11992,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="64" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="64" spans="21:22">
       <c r="U64" s="1">
         <v>145.6</v>
       </c>
@@ -11614,7 +12000,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="65" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="65" spans="21:22">
       <c r="U65" s="1">
         <v>148</v>
       </c>
@@ -11622,7 +12008,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="66" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="66" spans="21:22">
       <c r="U66" s="1">
         <v>150.46</v>
       </c>
@@ -11630,7 +12016,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="67" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="67" spans="21:22">
       <c r="U67" s="1">
         <v>152.91999999999999</v>
       </c>
@@ -11638,7 +12024,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="68" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="68" spans="21:22">
       <c r="U68" s="1">
         <v>155.38</v>
       </c>
@@ -11661,14 +12047,14 @@
       <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="11.453125" customWidth="1"/>
     <col min="21" max="21" width="9.2265625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11682,7 +12068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:22">
       <c r="U3" s="1">
         <v>0.47</v>
       </c>
@@ -11690,7 +12076,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:22">
       <c r="U4" s="1">
         <v>0.89</v>
       </c>
@@ -11698,7 +12084,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:22">
       <c r="U5" s="1">
         <v>1.32</v>
       </c>
@@ -11706,7 +12092,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:22">
       <c r="U6" s="1">
         <v>1.74</v>
       </c>
@@ -11714,7 +12100,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:22">
       <c r="U7" s="1">
         <v>2.16</v>
       </c>
@@ -11722,7 +12108,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:22">
       <c r="U8" s="1">
         <v>2.61</v>
       </c>
@@ -11730,7 +12116,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:22">
       <c r="U9" s="1">
         <v>3.05</v>
       </c>
@@ -11738,7 +12124,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:22">
       <c r="U10" s="1">
         <v>3.51</v>
       </c>
@@ -11746,7 +12132,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:22">
       <c r="U11" s="1">
         <v>4.0599999999999996</v>
       </c>
@@ -11754,7 +12140,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:22">
       <c r="U12" s="1">
         <v>4.5</v>
       </c>
@@ -11762,7 +12148,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:22">
       <c r="U13" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -11770,7 +12156,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:22">
       <c r="U14" s="1">
         <v>5.35</v>
       </c>
@@ -11778,7 +12164,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:22">
       <c r="U15" s="1">
         <v>5.75</v>
       </c>
@@ -11786,7 +12172,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:22">
       <c r="U16" s="1">
         <v>6.24</v>
       </c>
@@ -11794,7 +12180,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="17" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="17" spans="21:22">
       <c r="U17" s="1">
         <v>6.66</v>
       </c>
@@ -11802,7 +12188,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="18" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="18" spans="21:22">
       <c r="U18" s="1">
         <v>7.09</v>
       </c>
@@ -11810,7 +12196,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="19" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="19" spans="21:22">
       <c r="U19" s="1">
         <v>7.5</v>
       </c>
@@ -11818,7 +12204,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="20" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="20" spans="21:22">
       <c r="U20" s="1">
         <v>8</v>
       </c>
@@ -11826,7 +12212,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="21" spans="21:22">
       <c r="U21" s="1">
         <v>8.4700000000000006</v>
       </c>
@@ -11834,7 +12220,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="22" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="22" spans="21:22">
       <c r="U22" s="1">
         <v>8.9499999999999993</v>
       </c>
@@ -11842,7 +12228,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="23" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="23" spans="21:22">
       <c r="U23" s="1">
         <v>9.41</v>
       </c>
@@ -11850,7 +12236,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="24" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="24" spans="21:22">
       <c r="U24" s="1">
         <v>9.84</v>
       </c>
@@ -11858,7 +12244,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="25" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="25" spans="21:22">
       <c r="U25" s="1">
         <v>10.33</v>
       </c>
@@ -11866,7 +12252,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="26" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="26" spans="21:22">
       <c r="U26" s="1">
         <v>10.8</v>
       </c>
@@ -11874,7 +12260,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="27" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="27" spans="21:22">
       <c r="U27" s="1">
         <v>11.25</v>
       </c>
@@ -11882,7 +12268,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="28" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="28" spans="21:22">
       <c r="U28" s="1">
         <v>11.71</v>
       </c>
@@ -11890,7 +12276,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="29" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="29" spans="21:22">
       <c r="U29" s="1">
         <v>12.19</v>
       </c>
@@ -11898,7 +12284,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="30" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="30" spans="21:22">
       <c r="U30" s="1">
         <v>12.6</v>
       </c>
@@ -11906,7 +12292,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="31" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="31" spans="21:22">
       <c r="U31" s="1">
         <v>13.05</v>
       </c>
@@ -11914,7 +12300,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="32" spans="21:22">
       <c r="U32" s="1">
         <v>13.49</v>
       </c>
@@ -11922,7 +12308,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="33" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="33" spans="21:22">
       <c r="U33" s="1">
         <v>13.98</v>
       </c>
@@ -11930,7 +12316,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="34" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="34" spans="21:22">
       <c r="U34" s="1">
         <v>14.47</v>
       </c>
@@ -11938,7 +12324,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="35" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="35" spans="21:22">
       <c r="U35" s="1">
         <v>14.94</v>
       </c>
@@ -11946,7 +12332,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="36" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="36" spans="21:22">
       <c r="U36" s="1">
         <v>15.44</v>
       </c>
@@ -11954,7 +12340,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="37" spans="21:22">
       <c r="U37" s="1">
         <v>15.89</v>
       </c>
@@ -11962,7 +12348,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="38" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="38" spans="21:22">
       <c r="U38" s="1">
         <v>16.32</v>
       </c>
@@ -11970,7 +12356,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="39" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="39" spans="21:22">
       <c r="U39" s="1">
         <v>16.78</v>
       </c>
@@ -11978,7 +12364,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="40" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="40" spans="21:22">
       <c r="U40" s="1">
         <v>17.25</v>
       </c>
@@ -11986,7 +12372,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="41" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="41" spans="21:22">
       <c r="U41" s="1">
         <v>17.71</v>
       </c>
@@ -11994,7 +12380,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="42" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="42" spans="21:22">
       <c r="U42" s="1">
         <v>18.170000000000002</v>
       </c>
@@ -12002,7 +12388,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="43" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="43" spans="21:22">
       <c r="U43" s="1">
         <v>18.66</v>
       </c>
@@ -12010,7 +12396,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="44" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="44" spans="21:22">
       <c r="U44" s="1">
         <v>19.13</v>
       </c>
@@ -12018,7 +12404,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="45" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="45" spans="21:22">
       <c r="U45" s="1">
         <v>19.62</v>
       </c>
@@ -12026,7 +12412,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="46" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="46" spans="21:22">
       <c r="U46" s="1">
         <v>20.12</v>
       </c>
@@ -12034,7 +12420,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="47" spans="21:22">
       <c r="U47" s="1">
         <v>20.61</v>
       </c>
@@ -12042,7 +12428,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="48" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="48" spans="21:22">
       <c r="U48" s="1">
         <v>21.04</v>
       </c>
@@ -12050,7 +12436,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="49" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="49" spans="21:22">
       <c r="U49" s="1">
         <v>21.52</v>
       </c>
@@ -12058,7 +12444,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="50" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="50" spans="21:22">
       <c r="U50" s="1">
         <v>22</v>
       </c>
@@ -12066,7 +12452,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="51" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="51" spans="21:22">
       <c r="U51" s="1">
         <v>22.54</v>
       </c>
@@ -12074,7 +12460,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="52" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="52" spans="21:22">
       <c r="U52" s="1">
         <v>23</v>
       </c>
@@ -12082,7 +12468,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="53" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="53" spans="21:22">
       <c r="U53" s="1">
         <v>23.55</v>
       </c>
@@ -12090,7 +12476,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="54" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="54" spans="21:22">
       <c r="U54" s="1">
         <v>24.05</v>
       </c>
@@ -12098,7 +12484,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="55" spans="21:22">
       <c r="U55" s="1">
         <v>24.51</v>
       </c>
@@ -12106,7 +12492,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="56" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="56" spans="21:22">
       <c r="U56" s="1">
         <v>24.97</v>
       </c>
@@ -12114,7 +12500,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="57" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="57" spans="21:22">
       <c r="U57" s="1">
         <v>25.4</v>
       </c>
@@ -12122,7 +12508,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="58" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="58" spans="21:22">
       <c r="U58" s="1">
         <v>25.91</v>
       </c>
@@ -12130,7 +12516,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="59" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="59" spans="21:22">
       <c r="U59" s="1">
         <v>26.39</v>
       </c>
@@ -12138,7 +12524,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="60" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="60" spans="21:22">
       <c r="U60" s="1">
         <v>26.89</v>
       </c>
@@ -12146,7 +12532,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="61" spans="21:22">
       <c r="U61" s="1">
         <v>27.43</v>
       </c>
@@ -12154,7 +12540,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="62" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="62" spans="21:22">
       <c r="U62" s="1">
         <v>27.94</v>
       </c>
@@ -12162,7 +12548,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="63" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="63" spans="21:22">
       <c r="U63" s="1">
         <v>28.35</v>
       </c>
@@ -12170,7 +12556,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="64" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="64" spans="21:22">
       <c r="U64" s="1">
         <v>28.77</v>
       </c>
@@ -12178,7 +12564,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="65" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="65" spans="21:22">
       <c r="U65" s="1">
         <v>29.29</v>
       </c>
@@ -12186,7 +12572,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="66" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="66" spans="21:22">
       <c r="U66" s="1">
         <v>29.77</v>
       </c>
@@ -12194,7 +12580,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="67" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="67" spans="21:22">
       <c r="U67" s="1">
         <v>30.28</v>
       </c>
@@ -12202,7 +12588,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="68" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="68" spans="21:22">
       <c r="U68" s="1">
         <v>30.73</v>
       </c>
@@ -12210,7 +12596,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="69" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="69" spans="21:22">
       <c r="U69">
         <v>31.25</v>
       </c>
@@ -12218,7 +12604,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="70" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="70" spans="21:22">
       <c r="U70">
         <v>31.7</v>
       </c>
@@ -12226,7 +12612,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="71" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="71" spans="21:22">
       <c r="U71">
         <v>32.22</v>
       </c>
@@ -12249,14 +12635,14 @@
       <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="11.453125" customWidth="1"/>
     <col min="21" max="21" width="9.2265625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12270,7 +12656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:22">
       <c r="U3" s="1" t="s">
         <v>2</v>
       </c>
@@ -12278,7 +12664,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:22">
       <c r="U4" s="1">
         <v>2.4700000000000002</v>
       </c>
@@ -12286,7 +12672,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:22">
       <c r="U5" s="1">
         <v>3.8</v>
       </c>
@@ -12294,7 +12680,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:22">
       <c r="U6" s="1">
         <v>5.2</v>
       </c>
@@ -12302,7 +12688,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:22">
       <c r="U7" s="1">
         <v>6.56</v>
       </c>
@@ -12310,7 +12696,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:22">
       <c r="U8" s="1">
         <v>7.91</v>
       </c>
@@ -12318,7 +12704,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:22">
       <c r="U9" s="1">
         <v>9.2899999999999991</v>
       </c>
@@ -12326,7 +12712,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:22">
       <c r="U10" s="1">
         <v>10.69</v>
       </c>
@@ -12334,7 +12720,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:22">
       <c r="U11" s="1">
         <v>12.05</v>
       </c>
@@ -12342,7 +12728,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:22">
       <c r="U12" s="1">
         <v>13.49</v>
       </c>
@@ -12350,7 +12736,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:22">
       <c r="U13" s="1">
         <v>14.94</v>
       </c>
@@ -12358,7 +12744,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:22">
       <c r="U14" s="1">
         <v>16.47</v>
       </c>
@@ -12366,7 +12752,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:22">
       <c r="U15" s="1">
         <v>17.88</v>
       </c>
@@ -12374,7 +12760,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:22">
       <c r="U16" s="1">
         <v>19.36</v>
       </c>
@@ -12382,7 +12768,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="17" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="17" spans="21:22">
       <c r="U17" s="1">
         <v>20.82</v>
       </c>
@@ -12390,7 +12776,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="18" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="18" spans="21:22">
       <c r="U18" s="1">
         <v>22.28</v>
       </c>
@@ -12398,7 +12784,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="19" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="19" spans="21:22">
       <c r="U19" s="1">
         <v>23.98</v>
       </c>
@@ -12406,7 +12792,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="20" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="20" spans="21:22">
       <c r="U20" s="1">
         <v>25.7</v>
       </c>
@@ -12414,7 +12800,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="21" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="21" spans="21:22">
       <c r="U21" s="1">
         <v>27.33</v>
       </c>
@@ -12422,7 +12808,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="22" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="22" spans="21:22">
       <c r="U22" s="1">
         <v>28.87</v>
       </c>
@@ -12430,7 +12816,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="23" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="23" spans="21:22">
       <c r="U23" s="1">
         <v>30.36</v>
       </c>
@@ -12438,7 +12824,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="24" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="24" spans="21:22">
       <c r="U24" s="1">
         <v>31.79</v>
       </c>
@@ -12446,7 +12832,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="25" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="25" spans="21:22">
       <c r="U25" s="1">
         <v>33.29</v>
       </c>
@@ -12454,7 +12840,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="26" spans="21:22">
       <c r="U26" s="1">
         <v>34.82</v>
       </c>
@@ -12462,7 +12848,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="27" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="27" spans="21:22">
       <c r="U27" s="1">
         <v>36.33</v>
       </c>
@@ -12470,7 +12856,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="28" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="28" spans="21:22">
       <c r="U28" s="1">
         <v>37.83</v>
       </c>
@@ -12478,7 +12864,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="29" spans="21:22">
       <c r="U29" s="1">
         <v>39.33</v>
       </c>
@@ -12486,7 +12872,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="30" spans="21:22">
       <c r="U30" s="1">
         <v>40.92</v>
       </c>
@@ -12494,7 +12880,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="31" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="31" spans="21:22">
       <c r="U31" s="1">
         <v>42.46</v>
       </c>
@@ -12502,7 +12888,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="32" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="32" spans="21:22">
       <c r="U32" s="1">
         <v>44.09</v>
       </c>
@@ -12510,7 +12896,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="33" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="33" spans="21:22">
       <c r="U33" s="1">
         <v>45.64</v>
       </c>
@@ -12518,7 +12904,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="34" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="34" spans="21:22">
       <c r="U34" s="1">
         <v>47.22</v>
       </c>
@@ -12526,7 +12912,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="35" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="35" spans="21:22">
       <c r="U35" s="1">
         <v>48.83</v>
       </c>
@@ -12534,7 +12920,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="36" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="36" spans="21:22">
       <c r="U36" s="1">
         <v>50.37</v>
       </c>
@@ -12542,7 +12928,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="37" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="37" spans="21:22">
       <c r="U37" s="1">
         <v>52.08</v>
       </c>
@@ -12550,7 +12936,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="38" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="38" spans="21:22">
       <c r="U38" s="1">
         <v>53.67</v>
       </c>
@@ -12558,7 +12944,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="39" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="39" spans="21:22">
       <c r="U39" s="1">
         <v>55.25</v>
       </c>
@@ -12566,7 +12952,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="40" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="40" spans="21:22">
       <c r="U40" s="1">
         <v>56.78</v>
       </c>
@@ -12574,7 +12960,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="41" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="41" spans="21:22">
       <c r="U41" s="1">
         <v>58.4</v>
       </c>
@@ -12582,7 +12968,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="42" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="42" spans="21:22">
       <c r="U42" s="1">
         <v>59.94</v>
       </c>
@@ -12590,7 +12976,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="43" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="43" spans="21:22">
       <c r="U43" s="1">
         <v>61.47</v>
       </c>
@@ -12598,7 +12984,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="44" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="44" spans="21:22">
       <c r="U44" s="1">
         <v>63.14</v>
       </c>
@@ -12606,7 +12992,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="45" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="45" spans="21:22">
       <c r="U45" s="1">
         <v>64.760000000000005</v>
       </c>
@@ -12614,7 +13000,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="46" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="46" spans="21:22">
       <c r="U46" s="1">
         <v>66.290000000000006</v>
       </c>
@@ -12622,7 +13008,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="47" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="47" spans="21:22">
       <c r="U47" s="1">
         <v>67.900000000000006</v>
       </c>
@@ -12630,7 +13016,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="48" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="48" spans="21:22">
       <c r="U48" s="1">
         <v>69.55</v>
       </c>
@@ -12638,7 +13024,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="49" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="49" spans="21:22">
       <c r="U49" s="1">
         <v>71.23</v>
       </c>
@@ -12646,7 +13032,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="50" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="50" spans="21:22">
       <c r="U50" s="1">
         <v>72.81</v>
       </c>
@@ -12654,7 +13040,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="51" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="51" spans="21:22">
       <c r="U51" s="1">
         <v>74.44</v>
       </c>
@@ -12662,7 +13048,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="52" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="52" spans="21:22">
       <c r="U52" s="1">
         <v>76.010000000000005</v>
       </c>
@@ -12670,7 +13056,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="53" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="53" spans="21:22">
       <c r="U53" s="1">
         <v>77.75</v>
       </c>
@@ -12678,7 +13064,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="54" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="54" spans="21:22">
       <c r="U54" s="1">
         <v>79.42</v>
       </c>
@@ -12686,7 +13072,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="55" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="55" spans="21:22">
       <c r="U55" s="1">
         <v>81.12</v>
       </c>
@@ -12694,7 +13080,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="56" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="56" spans="21:22">
       <c r="U56" s="1">
         <v>82.78</v>
       </c>
@@ -12702,7 +13088,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="57" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="57" spans="21:22">
       <c r="U57" s="1">
         <v>84.47</v>
       </c>
@@ -12710,7 +13096,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="58" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="58" spans="21:22">
       <c r="U58" s="1">
         <v>86.17</v>
       </c>
@@ -12718,7 +13104,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="59" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="59" spans="21:22">
       <c r="U59" s="1">
         <v>87.89</v>
       </c>
@@ -12726,7 +13112,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="60" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="60" spans="21:22">
       <c r="U60" s="1">
         <v>89.57</v>
       </c>
@@ -12734,7 +13120,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="61" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="61" spans="21:22">
       <c r="U61" s="1">
         <v>91.25</v>
       </c>
@@ -12742,7 +13128,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="62" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="62" spans="21:22">
       <c r="U62" s="1">
         <v>92.95</v>
       </c>
@@ -12750,7 +13136,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="63" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="63" spans="21:22">
       <c r="U63" s="1">
         <v>94.5</v>
       </c>
@@ -12758,23 +13144,23 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="64" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="64" spans="21:22">
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
     </row>
-    <row r="65" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="65" spans="21:22">
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
     </row>
-    <row r="66" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="66" spans="21:22">
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
     </row>
-    <row r="67" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="67" spans="21:22">
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
     </row>
-    <row r="68" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="68" spans="21:22">
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
     </row>
@@ -12793,14 +13179,14 @@
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="11.453125" customWidth="1"/>
     <col min="21" max="21" width="9.2265625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12814,7 +13200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:22">
       <c r="U3" s="1" t="s">
         <v>3</v>
       </c>
@@ -12822,7 +13208,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:22">
       <c r="U4" s="1">
         <v>1.62</v>
       </c>
@@ -12830,7 +13216,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:22">
       <c r="U5" s="1">
         <v>2.2200000000000002</v>
       </c>
@@ -12838,7 +13224,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:22">
       <c r="U6" s="1">
         <v>2.73</v>
       </c>
@@ -12846,7 +13232,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:22">
       <c r="U7" s="1">
         <v>3.31</v>
       </c>
@@ -12854,7 +13240,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:22">
       <c r="U8" s="1">
         <v>3.82</v>
       </c>
@@ -12862,7 +13248,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:22">
       <c r="U9" s="1">
         <v>4.3600000000000003</v>
       </c>
@@ -12870,7 +13256,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:22">
       <c r="U10" s="1">
         <v>4.87</v>
       </c>
@@ -12878,7 +13264,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:22">
       <c r="U11" s="1">
         <v>5.47</v>
       </c>
@@ -12886,7 +13272,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:22">
       <c r="U12" s="1">
         <v>5.99</v>
       </c>
@@ -12894,7 +13280,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:22">
       <c r="U13" s="1">
         <v>6.46</v>
       </c>
@@ -12902,7 +13288,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:22">
       <c r="U14" s="1">
         <v>6.96</v>
       </c>
@@ -12910,7 +13296,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:22">
       <c r="U15" s="1">
         <v>7.97</v>
       </c>
@@ -12918,7 +13304,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:22">
       <c r="U16" s="1">
         <v>8.4600000000000009</v>
       </c>
@@ -12926,7 +13312,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="17" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="17" spans="21:22">
       <c r="U17" s="1">
         <v>8.9499999999999993</v>
       </c>
@@ -12934,7 +13320,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="18" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="18" spans="21:22">
       <c r="U18" s="1">
         <v>9.41</v>
       </c>
@@ -12942,7 +13328,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="19" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="19" spans="21:22">
       <c r="U19" s="1">
         <v>9.99</v>
       </c>
@@ -12950,7 +13336,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="20" spans="21:22">
       <c r="U20" s="1">
         <v>10.47</v>
       </c>
@@ -12958,7 +13344,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="21" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="21" spans="21:22">
       <c r="U21" s="1">
         <v>10.93</v>
       </c>
@@ -12966,7 +13352,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="22" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="22" spans="21:22">
       <c r="U22" s="1">
         <v>11.51</v>
       </c>
@@ -12974,7 +13360,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="23" spans="21:22">
       <c r="U23" s="1">
         <v>11.97</v>
       </c>
@@ -12982,7 +13368,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="24" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="24" spans="21:22">
       <c r="U24" s="1">
         <v>12.49</v>
       </c>
@@ -12990,7 +13376,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="25" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="25" spans="21:22">
       <c r="U25" s="1">
         <v>12.94</v>
       </c>
@@ -12998,7 +13384,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="26" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="26" spans="21:22">
       <c r="U26" s="1">
         <v>13.44</v>
       </c>
@@ -13006,7 +13392,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="27" spans="21:22">
       <c r="U27" s="1">
         <v>14</v>
       </c>
@@ -13014,7 +13400,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="28" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="28" spans="21:22">
       <c r="U28" s="1">
         <v>14.44</v>
       </c>
@@ -13022,7 +13408,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="29" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="29" spans="21:22">
       <c r="U29" s="1">
         <v>14.93</v>
       </c>
@@ -13030,7 +13416,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="30" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="30" spans="21:22">
       <c r="U30" s="1">
         <v>15.41</v>
       </c>
@@ -13038,7 +13424,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="31" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="31" spans="21:22">
       <c r="U31" s="1">
         <v>15.95</v>
       </c>
@@ -13046,7 +13432,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="32" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="32" spans="21:22">
       <c r="U32" s="1">
         <v>16.420000000000002</v>
       </c>
@@ -13054,7 +13440,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="33" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="33" spans="21:22">
       <c r="U33" s="1">
         <v>16.899999999999999</v>
       </c>
@@ -13062,7 +13448,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="34" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="34" spans="21:22">
       <c r="U34" s="1">
         <v>17.309999999999999</v>
       </c>
@@ -13070,7 +13456,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="35" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="35" spans="21:22">
       <c r="U35" s="1">
         <v>17.760000000000002</v>
       </c>
@@ -13078,7 +13464,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="36" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="36" spans="21:22">
       <c r="U36" s="1">
         <v>18.2</v>
       </c>
@@ -13086,7 +13472,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="37" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="37" spans="21:22">
       <c r="U37" s="1">
         <v>18.75</v>
       </c>
@@ -13094,7 +13480,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="38" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="38" spans="21:22">
       <c r="U38" s="1">
         <v>19.2</v>
       </c>
@@ -13102,7 +13488,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="39" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="39" spans="21:22">
       <c r="U39" s="1">
         <v>19.66</v>
       </c>
@@ -13110,7 +13496,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="40" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="40" spans="21:22">
       <c r="U40" s="1">
         <v>20.170000000000002</v>
       </c>
@@ -13118,7 +13504,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="41" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="41" spans="21:22">
       <c r="U41" s="1">
         <v>20.75</v>
       </c>
@@ -13126,7 +13512,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="42" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="42" spans="21:22">
       <c r="U42" s="1">
         <v>21.26</v>
       </c>
@@ -13134,7 +13520,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="43" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="43" spans="21:22">
       <c r="U43" s="1">
         <v>21.74</v>
       </c>
@@ -13142,7 +13528,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="44" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="44" spans="21:22">
       <c r="U44" s="1">
         <v>22.25</v>
       </c>
@@ -13150,7 +13536,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="45" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="45" spans="21:22">
       <c r="U45" s="1">
         <v>22.71</v>
       </c>
@@ -13158,7 +13544,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="46" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="46" spans="21:22">
       <c r="U46" s="1">
         <v>23.11</v>
       </c>
@@ -13166,7 +13552,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="47" spans="21:22">
       <c r="U47" s="1">
         <v>23.57</v>
       </c>
@@ -13174,7 +13560,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="48" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="48" spans="21:22">
       <c r="U48" s="1">
         <v>24.07</v>
       </c>
@@ -13182,7 +13568,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="49" spans="21:22">
       <c r="U49" s="1">
         <v>24.55</v>
       </c>
@@ -13190,7 +13576,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="50" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="50" spans="21:22">
       <c r="U50" s="1">
         <v>25.1</v>
       </c>
@@ -13198,7 +13584,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="51" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="51" spans="21:22">
       <c r="U51" s="1">
         <v>25.53</v>
       </c>
@@ -13206,7 +13592,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="52" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="52" spans="21:22">
       <c r="U52" s="1">
         <v>26.04</v>
       </c>
@@ -13214,7 +13600,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="53" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="53" spans="21:22">
       <c r="U53" s="1">
         <v>26.54</v>
       </c>
@@ -13222,7 +13608,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="54" spans="21:22">
       <c r="U54" s="1">
         <v>27.07</v>
       </c>
@@ -13230,7 +13616,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="55" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="55" spans="21:22">
       <c r="U55" s="1">
         <v>27.6</v>
       </c>
@@ -13238,7 +13624,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="56" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="56" spans="21:22">
       <c r="U56" s="1">
         <v>28.11</v>
       </c>
@@ -13246,7 +13632,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="57" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="57" spans="21:22">
       <c r="U57" s="1">
         <v>28.72</v>
       </c>
@@ -13254,7 +13640,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="58" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="58" spans="21:22">
       <c r="U58" s="1">
         <v>29.18</v>
       </c>
@@ -13262,7 +13648,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="59" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="59" spans="21:22">
       <c r="U59" s="1">
         <v>29.68</v>
       </c>
@@ -13270,7 +13656,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="60" spans="21:22">
       <c r="U60" s="1">
         <v>30.16</v>
       </c>
@@ -13278,7 +13664,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="61" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="61" spans="21:22">
       <c r="U61" s="1">
         <v>30.69</v>
       </c>
@@ -13286,7 +13672,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="62" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="62" spans="21:22">
       <c r="U62" s="1">
         <v>31.25</v>
       </c>
@@ -13294,27 +13680,27 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="63" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="63" spans="21:22">
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
     </row>
-    <row r="64" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="64" spans="21:22">
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
     </row>
-    <row r="65" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="65" spans="21:22">
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
     </row>
-    <row r="66" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="66" spans="21:22">
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
     </row>
-    <row r="67" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="67" spans="21:22">
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
     </row>
-    <row r="68" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="68" spans="21:22">
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
     </row>
@@ -13333,14 +13719,14 @@
       <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="11.453125" customWidth="1"/>
     <col min="21" max="21" width="9.2265625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13354,7 +13740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:22">
       <c r="U3" s="1">
         <v>1.48</v>
       </c>
@@ -13362,7 +13748,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:22">
       <c r="U4" s="1">
         <v>3.45</v>
       </c>
@@ -13370,7 +13756,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:22">
       <c r="U5" s="1">
         <v>5.15</v>
       </c>
@@ -13378,7 +13764,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:22">
       <c r="U6" s="1">
         <v>6.95</v>
       </c>
@@ -13386,7 +13772,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:22">
       <c r="U7" s="1">
         <v>8.52</v>
       </c>
@@ -13394,7 +13780,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:22">
       <c r="U8" s="1">
         <v>10.64</v>
       </c>
@@ -13402,7 +13788,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:22">
       <c r="U9" s="1">
         <v>12.37</v>
       </c>
@@ -13410,7 +13796,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:22">
       <c r="U10" s="1">
         <v>14.01</v>
       </c>
@@ -13418,7 +13804,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:22">
       <c r="U11" s="1">
         <v>15.77</v>
       </c>
@@ -13426,7 +13812,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:22">
       <c r="U12" s="1">
         <v>17.61</v>
       </c>
@@ -13434,7 +13820,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:22">
       <c r="U13" s="1">
         <v>19.48</v>
       </c>
@@ -13442,7 +13828,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:22">
       <c r="U14" s="1">
         <v>21.18</v>
       </c>
@@ -13450,7 +13836,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:22">
       <c r="U15" s="1">
         <v>22.98</v>
       </c>
@@ -13458,7 +13844,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:22">
       <c r="U16" s="1">
         <v>24.74</v>
       </c>
@@ -13466,7 +13852,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="17" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="17" spans="21:22">
       <c r="U17" s="1">
         <v>26.71</v>
       </c>
@@ -13474,7 +13860,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="18" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="18" spans="21:22">
       <c r="U18" s="1">
         <v>28.27</v>
       </c>
@@ -13482,7 +13868,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="19" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="19" spans="21:22">
       <c r="U19" s="1">
         <v>30.23</v>
       </c>
@@ -13490,7 +13876,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="20" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="20" spans="21:22">
       <c r="U20" s="1">
         <v>32.01</v>
       </c>
@@ -13498,7 +13884,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="21" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="21" spans="21:22">
       <c r="U21" s="1">
         <v>33.799999999999997</v>
       </c>
@@ -13506,7 +13892,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="22" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="22" spans="21:22">
       <c r="U22" s="1">
         <v>35.39</v>
       </c>
@@ -13514,7 +13900,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="23" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="23" spans="21:22">
       <c r="U23" s="1">
         <v>37.32</v>
       </c>
@@ -13522,7 +13908,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="24" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="24" spans="21:22">
       <c r="U24" s="1">
         <v>38.840000000000003</v>
       </c>
@@ -13530,7 +13916,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="25" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="25" spans="21:22">
       <c r="U25" s="1">
         <v>40.369999999999997</v>
       </c>
@@ -13538,7 +13924,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="26" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="26" spans="21:22">
       <c r="U26" s="1">
         <v>42.36</v>
       </c>
@@ -13546,7 +13932,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="27" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="27" spans="21:22">
       <c r="U27" s="1">
         <v>43.88</v>
       </c>
@@ -13554,7 +13940,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="28" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="28" spans="21:22">
       <c r="U28" s="1">
         <v>45.8</v>
       </c>
@@ -13562,7 +13948,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="29" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="29" spans="21:22">
       <c r="U29" s="1">
         <v>47.43</v>
       </c>
@@ -13570,7 +13956,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="30" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="30" spans="21:22">
       <c r="U30" s="1">
         <v>48.91</v>
       </c>
@@ -13578,7 +13964,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="31" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="31" spans="21:22">
       <c r="U31" s="1">
         <v>51.53</v>
       </c>
@@ -13586,7 +13972,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="32" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="32" spans="21:22">
       <c r="U32" s="1">
         <v>53.34</v>
       </c>
@@ -13594,7 +13980,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="33" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="33" spans="21:22">
       <c r="U33" s="1">
         <v>55.01</v>
       </c>
@@ -13602,7 +13988,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="34" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="34" spans="21:22">
       <c r="U34" s="1">
         <v>57.21</v>
       </c>
@@ -13610,7 +13996,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="35" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="35" spans="21:22">
       <c r="U35" s="1">
         <v>59.55</v>
       </c>
@@ -13618,7 +14004,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="36" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="36" spans="21:22">
       <c r="U36" s="1">
         <v>60.89</v>
       </c>
@@ -13626,7 +14012,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="37" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="37" spans="21:22">
       <c r="U37" s="1">
         <v>62.62</v>
       </c>
@@ -13634,7 +14020,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="38" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="38" spans="21:22">
       <c r="U38" s="1">
         <v>64.709999999999994</v>
       </c>
@@ -13642,7 +14028,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="39" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="39" spans="21:22">
       <c r="U39" s="1">
         <v>66.489999999999995</v>
       </c>
@@ -13650,7 +14036,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="40" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="40" spans="21:22">
       <c r="U40" s="1">
         <v>68.290000000000006</v>
       </c>
@@ -13658,7 +14044,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="41" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="41" spans="21:22">
       <c r="U41" s="1">
         <v>70.27</v>
       </c>
@@ -13666,7 +14052,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="42" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="42" spans="21:22">
       <c r="U42" s="1">
         <v>71.84</v>
       </c>
@@ -13674,7 +14060,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="43" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="43" spans="21:22">
       <c r="U43" s="1">
         <v>73.38</v>
       </c>
@@ -13682,7 +14068,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="44" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="44" spans="21:22">
       <c r="U44" s="1">
         <v>75.39</v>
       </c>
@@ -13690,7 +14076,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="45" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="45" spans="21:22">
       <c r="U45" s="1">
         <v>77.37</v>
       </c>
@@ -13698,7 +14084,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="46" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="46" spans="21:22">
       <c r="U46" s="1">
         <v>79.290000000000006</v>
       </c>
@@ -13706,7 +14092,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="47" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="47" spans="21:22">
       <c r="U47" s="1">
         <v>81.11</v>
       </c>
@@ -13714,7 +14100,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="48" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="48" spans="21:22">
       <c r="U48" s="1">
         <v>82.83</v>
       </c>
@@ -13722,7 +14108,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="49" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="49" spans="21:22">
       <c r="U49" s="1">
         <v>84.5</v>
       </c>
@@ -13730,7 +14116,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="50" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="50" spans="21:22">
       <c r="U50" s="1">
         <v>86.3</v>
       </c>
@@ -13738,7 +14124,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="51" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="51" spans="21:22">
       <c r="U51" s="1">
         <v>88.18</v>
       </c>
@@ -13746,7 +14132,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="52" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="52" spans="21:22">
       <c r="U52" s="1">
         <v>89.96</v>
       </c>
@@ -13754,7 +14140,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="53" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="53" spans="21:22">
       <c r="U53" s="1">
         <v>92.23</v>
       </c>
@@ -13762,7 +14148,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="54" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="54" spans="21:22">
       <c r="U54" s="1">
         <v>94.06</v>
       </c>
@@ -13770,59 +14156,59 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="55" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="55" spans="21:22">
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
     </row>
-    <row r="56" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="56" spans="21:22">
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
     </row>
-    <row r="57" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="57" spans="21:22">
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
     </row>
-    <row r="58" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="58" spans="21:22">
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
     </row>
-    <row r="59" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="59" spans="21:22">
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="60" spans="21:22">
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
     </row>
-    <row r="61" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="61" spans="21:22">
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
     </row>
-    <row r="62" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="62" spans="21:22">
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
     </row>
-    <row r="63" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="63" spans="21:22">
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
     </row>
-    <row r="64" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="64" spans="21:22">
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
     </row>
-    <row r="65" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="65" spans="21:22">
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
     </row>
-    <row r="66" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="66" spans="21:22">
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
     </row>
-    <row r="67" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="67" spans="21:22">
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
     </row>
-    <row r="68" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="68" spans="21:22">
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
     </row>
@@ -13841,14 +14227,14 @@
       <selection activeCell="X48" sqref="X48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="11.453125" customWidth="1"/>
     <col min="21" max="21" width="9.2265625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13862,7 +14248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:22">
       <c r="U3" s="1">
         <v>0.98</v>
       </c>
@@ -13870,7 +14256,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:22">
       <c r="U4" s="1">
         <v>3.47</v>
       </c>
@@ -13878,7 +14264,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:22">
       <c r="U5" s="1">
         <v>5.92</v>
       </c>
@@ -13886,7 +14272,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:22">
       <c r="U6" s="1">
         <v>8.32</v>
       </c>
@@ -13894,7 +14280,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:22">
       <c r="U7" s="1">
         <v>10.79</v>
       </c>
@@ -13902,7 +14288,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:22">
       <c r="U8" s="1">
         <v>14.03</v>
       </c>
@@ -13910,7 +14296,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:22">
       <c r="U9" s="1">
         <v>16.66</v>
       </c>
@@ -13918,7 +14304,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:22">
       <c r="U10" s="1">
         <v>18.93</v>
       </c>
@@ -13926,7 +14312,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:22">
       <c r="U11" s="1">
         <v>21</v>
       </c>
@@ -13934,7 +14320,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:22">
       <c r="U12" s="1">
         <v>24.6</v>
       </c>
@@ -13942,7 +14328,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:22">
       <c r="U13" s="1">
         <v>26.87</v>
       </c>
@@ -13950,7 +14336,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:22">
       <c r="U14" s="1">
         <v>29.02</v>
       </c>
@@ -13958,7 +14344,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:22">
       <c r="U15" s="1">
         <v>31.31</v>
       </c>
@@ -13966,7 +14352,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:22">
       <c r="U16" s="1">
         <v>33.090000000000003</v>
       </c>
@@ -13974,7 +14360,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="17" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="17" spans="21:22">
       <c r="U17" s="1">
         <v>34.6</v>
       </c>
@@ -13982,7 +14368,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="18" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="18" spans="21:22">
       <c r="U18" s="1">
         <v>38.369999999999997</v>
       </c>
@@ -13990,7 +14376,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="19" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="19" spans="21:22">
       <c r="U19" s="1">
         <v>40.74</v>
       </c>
@@ -13998,7 +14384,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="20" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="20" spans="21:22">
       <c r="U20" s="1">
         <v>42.86</v>
       </c>
@@ -14006,7 +14392,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="21" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="21" spans="21:22">
       <c r="U21" s="1">
         <v>45.58</v>
       </c>
@@ -14014,7 +14400,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="22" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="22" spans="21:22">
       <c r="U22" s="1">
         <v>47.33</v>
       </c>
@@ -14022,7 +14408,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="23" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="23" spans="21:22">
       <c r="U23" s="1">
         <v>49.38</v>
       </c>
@@ -14030,7 +14416,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="24" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="24" spans="21:22">
       <c r="U24" s="1">
         <v>51.5</v>
       </c>
@@ -14038,7 +14424,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="25" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="25" spans="21:22">
       <c r="U25" s="1">
         <v>53.95</v>
       </c>
@@ -14046,7 +14432,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="26" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="26" spans="21:22">
       <c r="U26" s="1">
         <v>56.44</v>
       </c>
@@ -14054,7 +14440,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="27" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="27" spans="21:22">
       <c r="U27" s="1">
         <v>59.19</v>
       </c>
@@ -14062,7 +14448,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="28" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="28" spans="21:22">
       <c r="U28" s="1">
         <v>61.79</v>
       </c>
@@ -14070,7 +14456,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="29" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="29" spans="21:22">
       <c r="U29" s="1">
         <v>65.97</v>
       </c>
@@ -14078,7 +14464,7 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="30" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="30" spans="21:22">
       <c r="U30" s="1">
         <v>68.239999999999995</v>
       </c>
@@ -14086,7 +14472,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="31" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="31" spans="21:22">
       <c r="U31" s="1">
         <v>70.38</v>
       </c>
@@ -14094,7 +14480,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="32" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="32" spans="21:22">
       <c r="U32" s="1">
         <v>72.48</v>
       </c>
@@ -14102,7 +14488,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="33" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="33" spans="21:22">
       <c r="U33" s="1">
         <v>74.61</v>
       </c>
@@ -14110,7 +14496,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="34" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="34" spans="21:22">
       <c r="U34" s="1">
         <v>77.819999999999993</v>
       </c>
@@ -14118,7 +14504,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="35" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="35" spans="21:22">
       <c r="U35" s="1">
         <v>80.209999999999994</v>
       </c>
@@ -14126,7 +14512,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="36" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="36" spans="21:22">
       <c r="U36" s="1">
         <v>82.29</v>
       </c>
@@ -14134,7 +14520,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="37" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="37" spans="21:22">
       <c r="U37" s="1">
         <v>84.39</v>
       </c>
@@ -14142,7 +14528,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="38" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="38" spans="21:22">
       <c r="U38" s="1">
         <v>86.83</v>
       </c>
@@ -14150,7 +14536,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="39" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="39" spans="21:22">
       <c r="U39" s="1">
         <v>89.4</v>
       </c>
@@ -14158,7 +14544,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="40" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="40" spans="21:22">
       <c r="U40" s="1">
         <v>91.9</v>
       </c>
@@ -14166,7 +14552,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="41" spans="21:22">
       <c r="U41" s="1">
         <v>93.9</v>
       </c>
@@ -14174,7 +14560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="42" spans="21:22">
       <c r="U42" s="1">
         <v>98</v>
       </c>
@@ -14182,7 +14568,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="43" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="43" spans="21:22">
       <c r="U43" s="1">
         <v>100.53</v>
       </c>
@@ -14190,7 +14576,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="44" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="44" spans="21:22">
       <c r="U44" s="1">
         <v>103.06</v>
       </c>
@@ -14198,7 +14584,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="45" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="45" spans="21:22">
       <c r="U45" s="1">
         <v>105.38</v>
       </c>
@@ -14206,7 +14592,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="46" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="46" spans="21:22">
       <c r="U46" s="1">
         <v>107.13</v>
       </c>
@@ -14214,7 +14600,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="47" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="47" spans="21:22">
       <c r="U47" s="1">
         <v>109.65</v>
       </c>
@@ -14222,7 +14608,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="48" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="48" spans="21:22">
       <c r="U48" s="1">
         <v>112.02</v>
       </c>
@@ -14230,7 +14616,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="49" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="49" spans="21:22">
       <c r="U49" s="1">
         <v>114.16</v>
       </c>
@@ -14238,7 +14624,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="50" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="50" spans="21:22">
       <c r="U50" s="1">
         <v>116.57</v>
       </c>
@@ -14246,7 +14632,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="51" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="51" spans="21:22">
       <c r="U51" s="1">
         <v>119.2</v>
       </c>
@@ -14254,7 +14640,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="52" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="52" spans="21:22">
       <c r="U52" s="1">
         <v>121.47</v>
       </c>
@@ -14262,7 +14648,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="53" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="53" spans="21:22">
       <c r="U53" s="1">
         <v>123.25</v>
       </c>
@@ -14270,7 +14656,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="54" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="54" spans="21:22">
       <c r="U54" s="1">
         <v>125.91</v>
       </c>
@@ -14278,7 +14664,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="55" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="55" spans="21:22">
       <c r="U55" s="1">
         <v>127.63</v>
       </c>
@@ -14286,7 +14672,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="56" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="56" spans="21:22">
       <c r="U56" s="1">
         <v>130.02000000000001</v>
       </c>
@@ -14294,51 +14680,51 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="57" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="57" spans="21:22">
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
     </row>
-    <row r="58" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="58" spans="21:22">
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
     </row>
-    <row r="59" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="59" spans="21:22">
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="60" spans="21:22">
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
     </row>
-    <row r="61" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="61" spans="21:22">
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
     </row>
-    <row r="62" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="62" spans="21:22">
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
     </row>
-    <row r="63" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="63" spans="21:22">
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
     </row>
-    <row r="64" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="64" spans="21:22">
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
     </row>
-    <row r="65" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="65" spans="21:22">
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
     </row>
-    <row r="66" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="66" spans="21:22">
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
     </row>
-    <row r="67" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="67" spans="21:22">
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
     </row>
-    <row r="68" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="68" spans="21:22">
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
     </row>
@@ -14354,17 +14740,17 @@
   <dimension ref="A2:V68"/>
   <sheetViews>
     <sheetView topLeftCell="S1" zoomScale="89" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="U3" sqref="U3:V55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="11.453125" customWidth="1"/>
     <col min="21" max="21" width="9.2265625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14378,267 +14764,479 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-    </row>
-    <row r="23" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-    </row>
-    <row r="26" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-    </row>
-    <row r="29" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-    </row>
-    <row r="30" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-    </row>
-    <row r="31" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-    </row>
-    <row r="32" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-    </row>
-    <row r="33" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-    </row>
-    <row r="34" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-    </row>
-    <row r="35" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-    </row>
-    <row r="36" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-    </row>
-    <row r="37" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-    </row>
-    <row r="38" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-    </row>
-    <row r="39" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-    </row>
-    <row r="40" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-    </row>
-    <row r="41" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-    </row>
-    <row r="42" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-    </row>
-    <row r="43" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-    </row>
-    <row r="44" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-    </row>
-    <row r="45" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-    </row>
-    <row r="46" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-    </row>
-    <row r="47" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-    </row>
-    <row r="48" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-    </row>
-    <row r="49" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-    </row>
-    <row r="50" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-    </row>
-    <row r="51" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-    </row>
-    <row r="52" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-    </row>
-    <row r="53" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-    </row>
-    <row r="54" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-    </row>
-    <row r="55" spans="21:22" x14ac:dyDescent="0.75">
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-    </row>
-    <row r="56" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:22">
+      <c r="U3" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="U4" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="U5" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="U6" s="3">
+        <v>1.67</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="U7" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="U8" s="3">
+        <v>2.59</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="U9" s="3">
+        <v>3.09</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="U10" s="3">
+        <v>3.62</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="U11" s="3">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="U12" s="3">
+        <v>4.58</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="U13" s="3">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="U14" s="3">
+        <v>5.47</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="U15" s="3">
+        <v>5.94</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="U16" s="3">
+        <v>6.45</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="17" spans="21:22">
+      <c r="U17" s="3">
+        <v>6.93</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="18" spans="21:22">
+      <c r="U18" s="3">
+        <v>7.31</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="19" spans="21:22">
+      <c r="U19" s="3">
+        <v>7.76</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="20" spans="21:22">
+      <c r="U20" s="3">
+        <v>8.17</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="21" spans="21:22">
+      <c r="U21" s="3">
+        <v>8.67</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="21:22">
+      <c r="U22" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="23" spans="21:22">
+      <c r="U23" s="3">
+        <v>9.48</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="24" spans="21:22">
+      <c r="U24" s="3">
+        <v>9.85</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="25" spans="21:22">
+      <c r="U25" s="3">
+        <v>10.24</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="26" spans="21:22">
+      <c r="U26" s="3">
+        <v>10.74</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="21:22">
+      <c r="U27" s="3">
+        <v>11.19</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="28" spans="21:22">
+      <c r="U28" s="3">
+        <v>11.64</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="29" spans="21:22">
+      <c r="U29" s="3">
+        <v>12.05</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="30" spans="21:22">
+      <c r="U30" s="3">
+        <v>12.46</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="31" spans="21:22">
+      <c r="U31" s="3">
+        <v>12.84</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="32" spans="21:22">
+      <c r="U32" s="3">
+        <v>13.29</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="33" spans="21:22">
+      <c r="U33" s="3">
+        <v>13.74</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="34" spans="21:22">
+      <c r="U34" s="3">
+        <v>14.33</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="35" spans="21:22">
+      <c r="U35" s="3">
+        <v>14.76</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="36" spans="21:22">
+      <c r="U36" s="3">
+        <v>15.18</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="37" spans="21:22">
+      <c r="U37" s="3">
+        <v>15.63</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="38" spans="21:22">
+      <c r="U38" s="3">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="39" spans="21:22">
+      <c r="U39" s="3">
+        <v>16.52</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="40" spans="21:22">
+      <c r="U40" s="3">
+        <v>17</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="41" spans="21:22">
+      <c r="U41" s="3">
+        <v>17.43</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="42" spans="21:22">
+      <c r="U42" s="3">
+        <v>17.89</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="43" spans="21:22">
+      <c r="U43" s="3">
+        <v>18.37</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="44" spans="21:22">
+      <c r="U44" s="3">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="45" spans="21:22">
+      <c r="U45" s="3">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="46" spans="21:22">
+      <c r="U46" s="3">
+        <v>19.62</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="47" spans="21:22">
+      <c r="U47" s="3">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="48" spans="21:22">
+      <c r="U48" s="3">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="49" spans="21:22">
+      <c r="U49" s="3">
+        <v>20.77</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="50" spans="21:22">
+      <c r="U50" s="3">
+        <v>21.18</v>
+      </c>
+      <c r="V50" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="51" spans="21:22">
+      <c r="U51" s="3">
+        <v>21.57</v>
+      </c>
+      <c r="V51" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="52" spans="21:22">
+      <c r="U52" s="3">
+        <v>22.07</v>
+      </c>
+      <c r="V52" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="21:22">
+      <c r="U53" s="3">
+        <v>22.38</v>
+      </c>
+      <c r="V53" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="54" spans="21:22">
+      <c r="U54" s="3">
+        <v>22.76</v>
+      </c>
+      <c r="V54" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="55" spans="21:22">
+      <c r="U55" s="3">
+        <v>23.13</v>
+      </c>
+      <c r="V55" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="56" spans="21:22">
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
     </row>
-    <row r="57" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="57" spans="21:22">
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
     </row>
-    <row r="58" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="58" spans="21:22">
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
     </row>
-    <row r="59" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="59" spans="21:22">
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="60" spans="21:22">
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
     </row>
-    <row r="61" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="61" spans="21:22">
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
     </row>
-    <row r="62" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="62" spans="21:22">
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
     </row>
-    <row r="63" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="63" spans="21:22">
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
     </row>
-    <row r="64" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="64" spans="21:22">
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
     </row>
-    <row r="65" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="65" spans="21:22">
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
     </row>
-    <row r="66" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="66" spans="21:22">
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
     </row>
-    <row r="67" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="67" spans="21:22">
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
     </row>
-    <row r="68" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="68" spans="21:22">
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
     </row>
@@ -14653,18 +15251,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8CADF1-7EDD-4DE5-BB43-ECAFC570A518}">
   <dimension ref="A2:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="89" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:V55"/>
+    <sheetView topLeftCell="S1" zoomScale="89" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="11.453125" customWidth="1"/>
     <col min="21" max="21" width="9.2265625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14678,7 +15276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:22">
       <c r="U3" s="1" t="s">
         <v>4</v>
       </c>
@@ -14686,7 +15284,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:22">
       <c r="U4" s="1">
         <v>0.87</v>
       </c>
@@ -14694,7 +15292,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:22">
       <c r="U5" s="1">
         <v>1.23</v>
       </c>
@@ -14702,7 +15300,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:22">
       <c r="U6" s="1">
         <v>1.67</v>
       </c>
@@ -14710,7 +15308,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:22">
       <c r="U7" s="1">
         <v>2.16</v>
       </c>
@@ -14718,7 +15316,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:22">
       <c r="U8" s="1">
         <v>2.59</v>
       </c>
@@ -14726,7 +15324,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:22">
       <c r="U9" s="1">
         <v>3.09</v>
       </c>
@@ -14734,7 +15332,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:22">
       <c r="U10" s="1">
         <v>3.62</v>
       </c>
@@ -14742,7 +15340,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:22">
       <c r="U11" s="1">
         <v>4.1100000000000003</v>
       </c>
@@ -14750,7 +15348,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:22">
       <c r="U12" s="1">
         <v>4.58</v>
       </c>
@@ -14758,7 +15356,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:22">
       <c r="U13" s="1">
         <v>4.9400000000000004</v>
       </c>
@@ -14766,7 +15364,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:22">
       <c r="U14" s="1">
         <v>5.47</v>
       </c>
@@ -14774,7 +15372,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:22">
       <c r="U15" s="1">
         <v>5.94</v>
       </c>
@@ -14782,7 +15380,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:22">
       <c r="U16" s="1">
         <v>6.45</v>
       </c>
@@ -14790,7 +15388,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="17" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="17" spans="21:22">
       <c r="U17" s="1">
         <v>6.93</v>
       </c>
@@ -14798,7 +15396,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="18" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="18" spans="21:22">
       <c r="U18" s="1">
         <v>7.31</v>
       </c>
@@ -14806,7 +15404,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="19" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="19" spans="21:22">
       <c r="U19" s="1">
         <v>7.76</v>
       </c>
@@ -14814,7 +15412,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="20" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="20" spans="21:22">
       <c r="U20" s="1">
         <v>8.17</v>
       </c>
@@ -14822,7 +15420,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="21" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="21" spans="21:22">
       <c r="U21" s="1">
         <v>8.67</v>
       </c>
@@ -14830,7 +15428,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="22" spans="21:22">
       <c r="U22" s="1">
         <v>9.1</v>
       </c>
@@ -14838,7 +15436,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="23" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="23" spans="21:22">
       <c r="U23" s="1">
         <v>9.48</v>
       </c>
@@ -14846,7 +15444,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="24" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="24" spans="21:22">
       <c r="U24" s="1">
         <v>9.85</v>
       </c>
@@ -14854,7 +15452,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="25" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="25" spans="21:22">
       <c r="U25" s="1">
         <v>10.24</v>
       </c>
@@ -14862,7 +15460,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="26" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="26" spans="21:22">
       <c r="U26" s="1">
         <v>10.74</v>
       </c>
@@ -14870,7 +15468,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="27" spans="21:22">
       <c r="U27" s="1">
         <v>11.19</v>
       </c>
@@ -14878,7 +15476,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="28" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="28" spans="21:22">
       <c r="U28" s="1">
         <v>11.64</v>
       </c>
@@ -14886,7 +15484,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="29" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="29" spans="21:22">
       <c r="U29" s="1">
         <v>12.05</v>
       </c>
@@ -14894,7 +15492,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="30" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="30" spans="21:22">
       <c r="U30" s="1">
         <v>12.46</v>
       </c>
@@ -14902,7 +15500,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="31" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="31" spans="21:22">
       <c r="U31" s="1">
         <v>12.84</v>
       </c>
@@ -14910,7 +15508,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="32" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="32" spans="21:22">
       <c r="U32" s="1">
         <v>13.29</v>
       </c>
@@ -14918,7 +15516,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="33" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="33" spans="21:22">
       <c r="U33" s="1">
         <v>13.74</v>
       </c>
@@ -14926,7 +15524,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="34" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="34" spans="21:22">
       <c r="U34" s="1">
         <v>14.33</v>
       </c>
@@ -14934,7 +15532,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="35" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="35" spans="21:22">
       <c r="U35" s="1">
         <v>14.76</v>
       </c>
@@ -14942,7 +15540,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="36" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="36" spans="21:22">
       <c r="U36" s="1">
         <v>15.18</v>
       </c>
@@ -14950,7 +15548,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="37" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="37" spans="21:22">
       <c r="U37" s="1">
         <v>15.63</v>
       </c>
@@ -14958,7 +15556,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="38" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="38" spans="21:22">
       <c r="U38" s="1">
         <v>16.059999999999999</v>
       </c>
@@ -14966,7 +15564,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="39" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="39" spans="21:22">
       <c r="U39" s="1">
         <v>16.52</v>
       </c>
@@ -14974,7 +15572,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="40" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="40" spans="21:22">
       <c r="U40" s="1">
         <v>17</v>
       </c>
@@ -14982,7 +15580,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="41" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="41" spans="21:22">
       <c r="U41" s="1">
         <v>17.43</v>
       </c>
@@ -14990,7 +15588,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="42" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="42" spans="21:22">
       <c r="U42" s="1">
         <v>17.89</v>
       </c>
@@ -14998,7 +15596,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="43" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="43" spans="21:22">
       <c r="U43" s="1">
         <v>18.37</v>
       </c>
@@ -15006,7 +15604,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="44" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="44" spans="21:22">
       <c r="U44" s="1">
         <v>18.739999999999998</v>
       </c>
@@ -15014,7 +15612,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="45" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="45" spans="21:22">
       <c r="U45" s="1">
         <v>19.170000000000002</v>
       </c>
@@ -15022,7 +15620,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="46" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="46" spans="21:22">
       <c r="U46" s="1">
         <v>19.62</v>
       </c>
@@ -15030,7 +15628,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="47" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="47" spans="21:22">
       <c r="U47" s="1">
         <v>20.059999999999999</v>
       </c>
@@ -15038,7 +15636,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="48" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="48" spans="21:22">
       <c r="U48" s="1">
         <v>20.440000000000001</v>
       </c>
@@ -15046,7 +15644,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="49" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="49" spans="21:22">
       <c r="U49" s="1">
         <v>20.77</v>
       </c>
@@ -15054,7 +15652,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="50" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="50" spans="21:22">
       <c r="U50" s="1">
         <v>21.18</v>
       </c>
@@ -15062,7 +15660,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="51" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="51" spans="21:22">
       <c r="U51" s="1">
         <v>21.57</v>
       </c>
@@ -15070,7 +15668,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="52" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="52" spans="21:22">
       <c r="U52" s="1">
         <v>22.07</v>
       </c>
@@ -15078,7 +15676,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="53" spans="21:22">
       <c r="U53" s="1">
         <v>22.38</v>
       </c>
@@ -15086,7 +15684,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="54" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="54" spans="21:22">
       <c r="U54" s="1">
         <v>22.76</v>
       </c>
@@ -15094,7 +15692,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="55" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="55" spans="21:22">
       <c r="U55" s="1">
         <v>23.13</v>
       </c>
@@ -15102,55 +15700,55 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="56" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="56" spans="21:22">
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
     </row>
-    <row r="57" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="57" spans="21:22">
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
     </row>
-    <row r="58" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="58" spans="21:22">
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
     </row>
-    <row r="59" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="59" spans="21:22">
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="60" spans="21:22">
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
     </row>
-    <row r="61" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="61" spans="21:22">
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
     </row>
-    <row r="62" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="62" spans="21:22">
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
     </row>
-    <row r="63" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="63" spans="21:22">
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
     </row>
-    <row r="64" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="64" spans="21:22">
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
     </row>
-    <row r="65" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="65" spans="21:22">
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
     </row>
-    <row r="66" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="66" spans="21:22">
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
     </row>
-    <row r="67" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="67" spans="21:22">
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
     </row>
-    <row r="68" spans="21:22" x14ac:dyDescent="0.75">
+    <row r="68" spans="21:22">
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
     </row>
